--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,6 +129,105 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -145,83 +244,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,45 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,73 +288,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,73 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,31 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -521,17 +545,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,44 +588,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30710" windowHeight="11540"/>
+    <workbookView windowWidth="25470" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,9 @@
     <t>看广告维持时长</t>
   </si>
   <si>
+    <t>解锁等级</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -76,9 +79,15 @@
     <t>BuffTimeAD</t>
   </si>
   <si>
+    <t>UnlockLevel</t>
+  </si>
+  <si>
     <t>红烧狮子头</t>
   </si>
   <si>
+    <t>fooditem_rootporkball</t>
+  </si>
+  <si>
     <t>肉和藕烹制的美味肉圆。</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>叫花鸡</t>
   </si>
   <si>
+    <t>fooditem_chicken</t>
+  </si>
+  <si>
     <t>用荷叶包裹鸡烹饪的叫花鸡。</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
   </si>
   <si>
     <t>掌上明珠</t>
+  </si>
+  <si>
+    <t>fooditem_fishbearspaw</t>
   </si>
   <si>
     <t>用熊掌和鱼丸一起烹饪的极品菜肴。</t>
@@ -108,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,38 +145,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,33 +168,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,14 +243,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -237,7 +251,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,29 +266,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,25 +303,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,157 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,39 +508,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,11 +544,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,9 +601,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,19 +627,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,112 +648,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,26 +1114,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.4545454545455" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.7272727272727" style="2" customWidth="1"/>
     <col min="5" max="6" width="19.9090909090909" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.4545454545455" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="11.9090909090909" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,97 +1160,112 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" ht="19" customHeight="1" spans="1:8">
+    <row r="5" ht="19" customHeight="1" spans="1:9">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>100</v>
@@ -1244,19 +1276,25 @@
       <c r="H5" s="2">
         <v>360</v>
       </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="19" customHeight="1" spans="1:8">
+    <row r="6" ht="19" customHeight="1" spans="1:9">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>50</v>
@@ -1267,19 +1305,25 @@
       <c r="H6" s="2">
         <v>360</v>
       </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" ht="19" customHeight="1" spans="1:8">
+    <row r="7" ht="19" customHeight="1" spans="1:9">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>20</v>
@@ -1289,6 +1333,9 @@
       </c>
       <c r="H7" s="2">
         <v>360</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>说明</t>
   </si>
   <si>
+    <t>制作材料</t>
+  </si>
+  <si>
     <t>增益效果</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>MakeRes</t>
+  </si>
+  <si>
     <t>BuffType</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>肉和藕烹制的美味肉圆。</t>
+  </si>
+  <si>
+    <t>1001|50;1002|50</t>
   </si>
   <si>
     <t>AddRoleExp</t>
@@ -124,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,7 +154,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,19 +260,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -188,101 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +521,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -523,6 +541,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,32 +601,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -578,34 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,19 +636,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,112 +657,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,12 +1123,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1128,14 +1137,15 @@
     <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.4545454545455" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.7272727272727" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19.9090909090909" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.4545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.9090909090909" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="28" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.9090909090909" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.4545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.9090909090909" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,178 +1173,199 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" ht="19" customHeight="1" spans="1:9">
+    <row r="5" ht="19" customHeight="1" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>20</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>360</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="19" customHeight="1" spans="1:9">
+    <row r="6" ht="19" customHeight="1" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2">
         <v>50</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>360</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="19" customHeight="1" spans="1:9">
+    <row r="7" ht="19" customHeight="1" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
       </c>
       <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
         <v>360</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1346,7 +1377,7 @@
     <row r="13" ht="19" customHeight="1"/>
     <row r="14" ht="19" customHeight="1"/>
   </sheetData>
-  <sortState ref="A3:F15">
+  <sortState ref="A3:G15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -132,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -161,14 +161,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,23 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,17 +266,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,61 +291,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +524,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -545,17 +554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +589,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,171 +618,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1302,7 +1302,7 @@
         <v>360</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:10">
@@ -1334,7 +1334,7 @@
         <v>360</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:10">
@@ -1366,7 +1366,7 @@
         <v>360</v>
       </c>
       <c r="J7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25470" windowHeight="11540"/>
+    <workbookView windowWidth="17040" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>1001|50;1002|50</t>
   </si>
   <si>
-    <t>AddRoleExp</t>
+    <t>Food_AddRoleExp</t>
   </si>
   <si>
     <t>叫花鸡</t>
@@ -112,7 +112,7 @@
     <t>用荷叶包裹鸡烹饪的叫花鸡。</t>
   </si>
   <si>
-    <t>AddCoin</t>
+    <t>Food_AddCoin</t>
   </si>
   <si>
     <t>掌上明珠</t>
@@ -124,7 +124,7 @@
     <t>用熊掌和鱼丸一起烹饪的极品菜肴。</t>
   </si>
   <si>
-    <t>AddATK</t>
+    <t>Food_AddATK</t>
   </si>
 </sst>
 </file>
@@ -133,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -154,6 +154,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,6 +168,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,14 +190,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,107 +284,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,43 +312,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,139 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,24 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -550,6 +532,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,7 +560,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,16 +609,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -97,7 +97,7 @@
     <t>肉和藕烹制的美味肉圆。</t>
   </si>
   <si>
-    <t>1001|50;1002|50</t>
+    <t>1009|50;1010|50</t>
   </si>
   <si>
     <t>Food_AddRoleExp</t>
@@ -112,6 +112,9 @@
     <t>用荷叶包裹鸡烹饪的叫花鸡。</t>
   </si>
   <si>
+    <t>1013|50;1014|50</t>
+  </si>
+  <si>
     <t>Food_AddCoin</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t>用熊掌和鱼丸一起烹饪的极品菜肴。</t>
+  </si>
+  <si>
+    <t>1011|50;1012|50</t>
   </si>
   <si>
     <t>Food_AddATK</t>
@@ -132,12 +138,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,19 +162,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +212,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,22 +235,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,56 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +325,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,19 +433,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,151 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +530,80 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,90 +631,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,137 +649,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,6 +789,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1123,29 +1139,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.4545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.7272727272727" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.9090909090909" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.4545454545455" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.9090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="19" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1305,7 +1321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="19" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1319,10 +1335,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2">
         <v>50</v>
@@ -1337,24 +1353,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="19" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
@@ -1369,13 +1385,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="19" customHeight="1"/>
-    <row r="9" ht="19" customHeight="1"/>
-    <row r="10" ht="19" customHeight="1"/>
-    <row r="11" ht="19" customHeight="1"/>
-    <row r="12" ht="19" customHeight="1"/>
-    <row r="13" ht="19" customHeight="1"/>
-    <row r="14" ht="19" customHeight="1"/>
   </sheetData>
   <sortState ref="A3:G15">
     <sortCondition ref="A5"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -94,10 +94,10 @@
     <t>fooditem_rootporkball</t>
   </si>
   <si>
-    <t>肉和藕烹制的美味肉圆。</t>
-  </si>
-  <si>
-    <t>1009|50;1010|50</t>
+    <t>肉和藕烹制的美味肉圆。吃了之后，弟子获得经验+100%。</t>
+  </si>
+  <si>
+    <t>1009|20;1010|25</t>
   </si>
   <si>
     <t>Food_AddRoleExp</t>
@@ -109,10 +109,10 @@
     <t>fooditem_chicken</t>
   </si>
   <si>
-    <t>用荷叶包裹鸡烹饪的叫花鸡。</t>
-  </si>
-  <si>
-    <t>1013|50;1014|50</t>
+    <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+50%。</t>
+  </si>
+  <si>
+    <t>1014|10;1013|20</t>
   </si>
   <si>
     <t>Food_AddCoin</t>
@@ -124,10 +124,10 @@
     <t>fooditem_fishbearspaw</t>
   </si>
   <si>
-    <t>用熊掌和鱼丸一起烹饪的极品菜肴。</t>
-  </si>
-  <si>
-    <t>1011|50;1012|50</t>
+    <t>用熊掌和鱼丸一起烹饪的极品菜肴。吃了之后，弟子获得功夫经验+100%。</t>
+  </si>
+  <si>
+    <t>1011|5;1012|20</t>
   </si>
   <si>
     <t>Food_AddATK</t>
@@ -167,6 +167,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,6 +218,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -188,39 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,60 +273,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,9 +295,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,13 +325,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,168 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,8 +537,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +573,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,34 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,16 +616,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1144,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1152,7 +1152,7 @@
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.875" style="2" customWidth="1"/>
     <col min="5" max="6" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -97,12 +97,18 @@
     <t>肉和藕烹制的美味肉圆。吃了之后，弟子获得经验+100%。</t>
   </si>
   <si>
-    <t>1009|20;1010|25</t>
+    <t>1009|20;1010|30</t>
   </si>
   <si>
     <t>Food_AddRoleExp</t>
   </si>
   <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
     <t>叫花鸡</t>
   </si>
   <si>
@@ -112,12 +118,21 @@
     <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+50%。</t>
   </si>
   <si>
-    <t>1014|10;1013|20</t>
+    <t>1014|10;1013|30</t>
   </si>
   <si>
     <t>Food_AddCoin</t>
   </si>
   <si>
+    <t>lotusroot</t>
+  </si>
+  <si>
+    <t>莲藕</t>
+  </si>
+  <si>
+    <t>收集</t>
+  </si>
+  <si>
     <t>掌上明珠</t>
   </si>
   <si>
@@ -127,10 +142,37 @@
     <t>用熊掌和鱼丸一起烹饪的极品菜肴。吃了之后，弟子获得功夫经验+100%。</t>
   </si>
   <si>
-    <t>1011|5;1012|20</t>
+    <t>1011|5;1012|15</t>
   </si>
   <si>
     <t>Food_AddATK</t>
+  </si>
+  <si>
+    <t>bearspaw</t>
+  </si>
+  <si>
+    <t>熊掌</t>
+  </si>
+  <si>
+    <t>附属</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>lotusleaf</t>
+  </si>
+  <si>
+    <t>荷叶</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>鸡</t>
   </si>
 </sst>
 </file>
@@ -138,12 +180,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,9 +202,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,8 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,7 +255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +263,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,45 +271,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,26 +308,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,9 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,187 +360,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,30 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -569,17 +580,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,17 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,16 +622,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,148 +684,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1139,20 +1168,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.625" style="2" customWidth="1"/>
     <col min="5" max="6" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
@@ -1289,7 +1318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1299,7 +1328,7 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1320,25 +1349,37 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
+      <c r="L5" s="2">
+        <v>1009</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>50</v>
@@ -1352,25 +1393,40 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
+      <c r="L6" s="2">
+        <v>1010</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
@@ -1383,6 +1439,66 @@
       </c>
       <c r="J7" s="2">
         <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1011</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="12:15">
+      <c r="L8" s="2">
+        <v>1012</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="12:16">
+      <c r="L9" s="2">
+        <v>1013</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="12:15">
+      <c r="L10" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="11540"/>
+    <workbookView windowWidth="25470" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>1001|50;1002|50</t>
   </si>
   <si>
-    <t>Food_AddRoleExp</t>
+    <t>AddRoleExp</t>
   </si>
   <si>
     <t>叫花鸡</t>
@@ -112,7 +112,7 @@
     <t>用荷叶包裹鸡烹饪的叫花鸡。</t>
   </si>
   <si>
-    <t>Food_AddCoin</t>
+    <t>AddCoin</t>
   </si>
   <si>
     <t>掌上明珠</t>
@@ -124,7 +124,7 @@
     <t>用熊掌和鱼丸一起烹饪的极品菜肴。</t>
   </si>
   <si>
-    <t>Food_AddATK</t>
+    <t>AddATK</t>
   </si>
 </sst>
 </file>
@@ -133,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -154,13 +154,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,37 +161,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +237,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,40 +258,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,30 +291,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +521,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -532,15 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,7 +569,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,25 +618,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +46,6 @@
     <t>看广告维持时长</t>
   </si>
   <si>
-    <t>解锁等级</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>BuffTimeAD</t>
-  </si>
-  <si>
-    <t>UnlockLevel</t>
   </si>
   <si>
     <t>红烧狮子头</t>
@@ -180,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -202,29 +196,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,110 +331,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -360,13 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,169 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +563,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -584,25 +587,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -618,6 +617,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -646,36 +660,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,12 +1162,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1186,11 +1180,10 @@
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,124 +1211,112 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
@@ -1346,40 +1327,37 @@
       <c r="I5" s="2">
         <v>360</v>
       </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
         <v>1009</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>50</v>
@@ -1390,43 +1368,40 @@
       <c r="I6" s="2">
         <v>360</v>
       </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
         <v>1010</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
@@ -1437,68 +1412,65 @@
       <c r="I7" s="2">
         <v>360</v>
       </c>
-      <c r="J7" s="2">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
         <v>1011</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="2" t="s">
+    </row>
+    <row r="8" spans="11:14">
+      <c r="K8" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="12:15">
-      <c r="L8" s="2">
-        <v>1012</v>
-      </c>
-      <c r="M8" s="2" t="s">
+    <row r="9" spans="11:15">
+      <c r="K9" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="12:16">
-      <c r="L9" s="2">
-        <v>1013</v>
-      </c>
-      <c r="M9" s="2" t="s">
+    <row r="10" spans="11:14">
+      <c r="K10" s="2">
+        <v>1014</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="12:15">
-      <c r="L10" s="2">
-        <v>1014</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31730" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>ID</t>
   </si>
@@ -94,52 +94,52 @@
     <t>1009|20;1010|30</t>
   </si>
   <si>
+    <t>Food_AddExp</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>叫花鸡</t>
+  </si>
+  <si>
+    <t>fooditem_chicken</t>
+  </si>
+  <si>
+    <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+50%。</t>
+  </si>
+  <si>
+    <t>1014|10;1013|30</t>
+  </si>
+  <si>
+    <t>Food_AddCoin</t>
+  </si>
+  <si>
+    <t>lotusroot</t>
+  </si>
+  <si>
+    <t>莲藕</t>
+  </si>
+  <si>
+    <t>收集</t>
+  </si>
+  <si>
+    <t>掌上明珠</t>
+  </si>
+  <si>
+    <t>fooditem_fishbearspaw</t>
+  </si>
+  <si>
+    <t>用熊掌和鱼丸一起烹饪的极品菜肴。吃了之后，弟子获得功夫经验+100%。</t>
+  </si>
+  <si>
+    <t>1011|5;1012|15</t>
+  </si>
+  <si>
     <t>Food_AddRoleExp</t>
-  </si>
-  <si>
-    <t>pork</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>叫花鸡</t>
-  </si>
-  <si>
-    <t>fooditem_chicken</t>
-  </si>
-  <si>
-    <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+50%。</t>
-  </si>
-  <si>
-    <t>1014|10;1013|30</t>
-  </si>
-  <si>
-    <t>Food_AddCoin</t>
-  </si>
-  <si>
-    <t>lotusroot</t>
-  </si>
-  <si>
-    <t>莲藕</t>
-  </si>
-  <si>
-    <t>收集</t>
-  </si>
-  <si>
-    <t>掌上明珠</t>
-  </si>
-  <si>
-    <t>fooditem_fishbearspaw</t>
-  </si>
-  <si>
-    <t>用熊掌和鱼丸一起烹饪的极品菜肴。吃了之后，弟子获得功夫经验+100%。</t>
-  </si>
-  <si>
-    <t>1011|5;1012|15</t>
-  </si>
-  <si>
-    <t>Food_AddATK</t>
   </si>
   <si>
     <t>bearspaw</t>
@@ -174,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -196,6 +196,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,15 +234,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +280,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,15 +300,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,88 +324,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -354,187 +354,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +572,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -587,11 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,21 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,23 +1167,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.7545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.6272727272727" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.1272727272727" style="2" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.1272727272727" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2">
         <v>20</v>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -85,7 +85,7 @@
     <t>红烧狮子头</t>
   </si>
   <si>
-    <t>fooditem_rootporkball</t>
+    <t>rootporkball</t>
   </si>
   <si>
     <t>肉和藕烹制的美味肉圆。吃了之后，弟子获得经验+100%。</t>
@@ -106,7 +106,7 @@
     <t>叫花鸡</t>
   </si>
   <si>
-    <t>fooditem_chicken</t>
+    <t>beggarschicken</t>
   </si>
   <si>
     <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+50%。</t>
@@ -130,7 +130,7 @@
     <t>掌上明珠</t>
   </si>
   <si>
-    <t>fooditem_fishbearspaw</t>
+    <t>fishbearspaw</t>
   </si>
   <si>
     <t>用熊掌和鱼丸一起烹饪的极品菜肴。吃了之后，弟子获得功夫经验+100%。</t>
@@ -175,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,7 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +207,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,75 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +272,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,30 +319,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,19 +354,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,25 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,133 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,73 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,7 +591,72 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,10 +678,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,115 +696,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1167,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31730" windowHeight="14830"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -91,7 +91,7 @@
     <t>肉和藕烹制的美味肉圆。吃了之后，弟子获得经验+100%。</t>
   </si>
   <si>
-    <t>1009|20;1010|30</t>
+    <t>1009|10;1010|20</t>
   </si>
   <si>
     <t>Food_AddExp</t>
@@ -112,7 +112,7 @@
     <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+50%。</t>
   </si>
   <si>
-    <t>1014|10;1013|30</t>
+    <t>1014|10;1013|20</t>
   </si>
   <si>
     <t>Food_AddCoin</t>
@@ -136,7 +136,7 @@
     <t>用熊掌和鱼丸一起烹饪的极品菜肴。吃了之后，弟子获得功夫经验+100%。</t>
   </si>
   <si>
-    <t>1011|5;1012|15</t>
+    <t>1011|5;1012|10</t>
   </si>
   <si>
     <t>Food_AddRoleExp</t>
@@ -196,17 +196,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,29 +317,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,84 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,31 +354,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,37 +450,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,19 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,85 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,35 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,17 +608,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,16 +678,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,115 +696,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,28 +1162,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.7545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.6272727272727" style="2" customWidth="1"/>
-    <col min="5" max="6" width="17.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.7583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.1272727272727" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1336,11 +1336,8 @@
       <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1378,13 +1375,10 @@
         <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1422,13 +1416,10 @@
         <v>42</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="11:14">
+    <row r="8" spans="11:13">
       <c r="K8" s="2">
         <v>1012</v>
       </c>
@@ -1438,11 +1429,8 @@
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="9" spans="11:15">
+    <row r="9" spans="11:14">
       <c r="K9" s="2">
         <v>1013</v>
       </c>
@@ -1453,13 +1441,10 @@
         <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="11:14">
+    <row r="10" spans="11:13">
       <c r="K10" s="2">
         <v>1014</v>
       </c>
@@ -1468,9 +1453,6 @@
       </c>
       <c r="M10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -109,7 +109,7 @@
     <t>beggarschicken</t>
   </si>
   <si>
-    <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+50%。</t>
+    <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+100%。</t>
   </si>
   <si>
     <t>1014|10;1013|20</t>
@@ -196,6 +196,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,60 +271,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +287,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -279,45 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,9 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,181 +354,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,32 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,11 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +633,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1167,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1357,7 +1357,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2">
         <v>20</v>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -40,10 +40,10 @@
     <t>增益效率</t>
   </si>
   <si>
-    <t>维持时长</t>
-  </si>
-  <si>
-    <t>看广告维持时长</t>
+    <t>维持时长，秒</t>
+  </si>
+  <si>
+    <t>看广告维持时长，秒</t>
   </si>
   <si>
     <t>A</t>
@@ -88,7 +88,7 @@
     <t>rootporkball</t>
   </si>
   <si>
-    <t>肉和藕烹制的美味肉圆。吃了之后，弟子获得经验+100%。</t>
+    <t>肉和藕烹制的美味肉圆。</t>
   </si>
   <si>
     <t>1009|10;1010|20</t>
@@ -109,7 +109,7 @@
     <t>beggarschicken</t>
   </si>
   <si>
-    <t>用荷叶包裹鸡烹饪的叫花鸡。吃了之后，获得铜钱+100%。</t>
+    <t>用荷叶包裹鸡烹饪的叫花鸡。</t>
   </si>
   <si>
     <t>1014|10;1013|20</t>
@@ -133,7 +133,7 @@
     <t>fishbearspaw</t>
   </si>
   <si>
-    <t>用熊掌和鱼丸一起烹饪的极品菜肴。吃了之后，弟子获得功夫经验+100%。</t>
+    <t>用熊掌和鱼丸一起烹饪的极品菜肴。</t>
   </si>
   <si>
     <t>1011|5;1012|10</t>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,12 +196,117 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -210,11 +315,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,119 +338,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -354,55 +354,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,115 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +563,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -574,15 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,52 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,19 +1167,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.7583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1322,10 +1322,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="I5" s="2">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="K5" s="2">
         <v>1009</v>
@@ -1360,10 +1360,10 @@
         <v>100</v>
       </c>
       <c r="H6" s="2">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="I6" s="2">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="K6" s="2">
         <v>1010</v>
@@ -1401,10 +1401,10 @@
         <v>100</v>
       </c>
       <c r="H7" s="2">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="I7" s="2">
-        <v>360</v>
+        <v>21600</v>
       </c>
       <c r="K7" s="2">
         <v>1011</v>

--- a/Tables/Sources/gameplay/Food/FoodConfig.xlsx
+++ b/Tables/Sources/gameplay/Food/FoodConfig.xlsx
@@ -40,10 +40,10 @@
     <t>增益效率</t>
   </si>
   <si>
-    <t>维持时长，秒</t>
-  </si>
-  <si>
-    <t>看广告维持时长，秒</t>
+    <t>维持时长，分钟</t>
+  </si>
+  <si>
+    <t>看广告维持时长，分钟</t>
   </si>
   <si>
     <t>A</t>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,6 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,75 +210,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,44 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -331,11 +332,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -354,43 +354,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,139 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,41 +559,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,8 +596,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,11 +626,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,145 +666,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1167,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1322,10 +1322,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
-        <v>21600</v>
+        <v>360</v>
       </c>
       <c r="K5" s="2">
         <v>1009</v>
@@ -1360,10 +1360,10 @@
         <v>100</v>
       </c>
       <c r="H6" s="2">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2">
-        <v>21600</v>
+        <v>360</v>
       </c>
       <c r="K6" s="2">
         <v>1010</v>
@@ -1401,10 +1401,10 @@
         <v>100</v>
       </c>
       <c r="H7" s="2">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2">
-        <v>21600</v>
+        <v>360</v>
       </c>
       <c r="K7" s="2">
         <v>1011</v>
